--- a/Data/ap-score-distributions-by-subject-2024.xlsx
+++ b/Data/ap-score-distributions-by-subject-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b6d5e3ae33e76fe/Documents/Fall2024/Flatiron-Live/Phase6/IAData_Public/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{9E4DEC1A-4812-B044-9593-1CE53F8C6DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49C83D6E-E12D-D440-B309-BB1820D343F2}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{9E4DEC1A-4812-B044-9593-1CE53F8C6DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C72CFC15-9257-1240-AFF0-23869F08BABE}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="1020" windowWidth="20120" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14480" yWindow="680" windowWidth="14180" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="4" r:id="rId1"/>
@@ -1670,9 +1670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798F8349-C007-4E92-8241-D2F821774034}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -2110,37 +2110,37 @@
         <v>19</v>
       </c>
       <c r="B13" s="10">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="10">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="10">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="10">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="10">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M13" s="10">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>9</v>
@@ -2151,37 +2151,37 @@
         <v>20</v>
       </c>
       <c r="B14" s="12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="12">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="M14" s="12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N14" s="13" t="s">
         <v>9</v>
@@ -2574,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="10">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>9</v>
@@ -2616,7 +2616,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="12">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>9</v>
@@ -5927,46 +5927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="369ee6f6-9d62-4491-b7a4-66255d695e6f" xsi:nil="true"/>
-    <Status xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Notes xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8" xsi:nil="true"/>
-    <MoreInfo_x002f_Notes xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8" xsi:nil="true"/>
-    <Details xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8" xsi:nil="true"/>
-    <PostingDate xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8" xsi:nil="true"/>
-    <URLs xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </URLs>
-    <LinkAppearsOn xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </LinkAppearsOn>
-    <SmartsheetRow xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </SmartsheetRow>
-    <Done xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8">false</Done>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063F2902237B106488A50A040DF937CB9" ma:contentTypeVersion="46" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="160733376ec899c95813343bbcb3e307">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="3b8630b7-794c-44c6-98ac-176dcbe715c8" xmlns:ns3="369ee6f6-9d62-4491-b7a4-66255d695e6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3eaf7d9384d74edc1490a8a05c627024" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6337,7 +6297,67 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="369ee6f6-9d62-4491-b7a4-66255d695e6f" xsi:nil="true"/>
+    <Status xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Notes xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8" xsi:nil="true"/>
+    <MoreInfo_x002f_Notes xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8" xsi:nil="true"/>
+    <Details xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8" xsi:nil="true"/>
+    <PostingDate xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8" xsi:nil="true"/>
+    <URLs xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </URLs>
+    <LinkAppearsOn xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </LinkAppearsOn>
+    <SmartsheetRow xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </SmartsheetRow>
+    <Done xmlns="3b8630b7-794c-44c6-98ac-176dcbe715c8">false</Done>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEA19840-863D-4C40-85B5-2593AE3BDA11}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="3b8630b7-794c-44c6-98ac-176dcbe715c8"/>
+    <ds:schemaRef ds:uri="369ee6f6-9d62-4491-b7a4-66255d695e6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05142A86-A11C-46BA-B81B-324E7F6D6E8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6345,7 +6365,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87706482-C447-4F55-A355-8889EE3DF113}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="b3375482-70ef-494f-9154-fe568fefda0f"/>
@@ -6365,26 +6385,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEA19840-863D-4C40-85B5-2593AE3BDA11}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="3b8630b7-794c-44c6-98ac-176dcbe715c8"/>
-    <ds:schemaRef ds:uri="369ee6f6-9d62-4491-b7a4-66255d695e6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{7530bded-fd6e-4f58-b5d2-ea681eb07663}" enabled="0" method="" siteId="{7530bded-fd6e-4f58-b5d2-ea681eb07663}" removed="1"/>
